--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Gdf9-Bmpr1b.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Gdf9-Bmpr1b.xlsx
@@ -531,22 +531,22 @@
         <v>21</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.3517556666666666</v>
+        <v>2.11624</v>
       </c>
       <c r="H2">
-        <v>1.055267</v>
+        <v>6.34872</v>
       </c>
       <c r="I2">
-        <v>0.04271818225758384</v>
+        <v>0.1897594766532197</v>
       </c>
       <c r="J2">
-        <v>0.04271818225758384</v>
+        <v>0.1897594766532197</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,22 +561,22 @@
         <v>5.12336</v>
       </c>
       <c r="O2">
-        <v>0.8764025646701328</v>
+        <v>0.7091726973716084</v>
       </c>
       <c r="P2">
-        <v>0.8764025646701328</v>
+        <v>0.7091726973716084</v>
       </c>
       <c r="Q2">
-        <v>0.6007236374577777</v>
+        <v>3.614086455466666</v>
       </c>
       <c r="R2">
-        <v>5.40651273712</v>
+        <v>32.5267780992</v>
       </c>
       <c r="S2">
-        <v>0.03743832448859263</v>
+        <v>0.1345722399099886</v>
       </c>
       <c r="T2">
-        <v>0.03743832448859263</v>
+        <v>0.1345722399099886</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>22</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.3517556666666666</v>
+        <v>2.11624</v>
       </c>
       <c r="H3">
-        <v>1.055267</v>
+        <v>6.34872</v>
       </c>
       <c r="I3">
-        <v>0.04271818225758384</v>
+        <v>0.1897594766532197</v>
       </c>
       <c r="J3">
-        <v>0.04271818225758384</v>
+        <v>0.1897594766532197</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,28 +617,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.240846</v>
+        <v>0.7003526666666667</v>
       </c>
       <c r="N3">
-        <v>0.722538</v>
+        <v>2.101058</v>
       </c>
       <c r="O3">
-        <v>0.1235974353298672</v>
+        <v>0.2908273026283917</v>
       </c>
       <c r="P3">
-        <v>0.1235974353298672</v>
+        <v>0.2908273026283917</v>
       </c>
       <c r="Q3">
-        <v>0.08471894529399999</v>
+        <v>1.482114327306667</v>
       </c>
       <c r="R3">
-        <v>0.762470507646</v>
+        <v>13.33902894576</v>
       </c>
       <c r="S3">
-        <v>0.005279857768991199</v>
+        <v>0.05518723674323116</v>
       </c>
       <c r="T3">
-        <v>0.005279857768991199</v>
+        <v>0.05518723674323116</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,10 +667,10 @@
         <v>20.610225</v>
       </c>
       <c r="I4">
-        <v>0.8343209329201149</v>
+        <v>0.6160274054778138</v>
       </c>
       <c r="J4">
-        <v>0.8343209329201149</v>
+        <v>0.6160274054778138</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,10 +685,10 @@
         <v>5.12336</v>
       </c>
       <c r="O4">
-        <v>0.8764025646701328</v>
+        <v>0.7091726973716084</v>
       </c>
       <c r="P4">
-        <v>0.8764025646701328</v>
+        <v>0.7091726973716084</v>
       </c>
       <c r="Q4">
         <v>11.732622484</v>
@@ -697,10 +697,10 @@
         <v>105.593602356</v>
       </c>
       <c r="S4">
-        <v>0.7312010053691665</v>
+        <v>0.4368698167975347</v>
       </c>
       <c r="T4">
-        <v>0.7312010053691665</v>
+        <v>0.4368698167975347</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,10 +729,10 @@
         <v>20.610225</v>
       </c>
       <c r="I5">
-        <v>0.8343209329201149</v>
+        <v>0.6160274054778138</v>
       </c>
       <c r="J5">
-        <v>0.8343209329201149</v>
+        <v>0.6160274054778138</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.240846</v>
+        <v>0.7003526666666667</v>
       </c>
       <c r="N5">
-        <v>0.722538</v>
+        <v>2.101058</v>
       </c>
       <c r="O5">
-        <v>0.1235974353298672</v>
+        <v>0.2908273026283917</v>
       </c>
       <c r="P5">
-        <v>0.1235974353298672</v>
+        <v>0.2908273026283917</v>
       </c>
       <c r="Q5">
-        <v>1.65463008345</v>
+        <v>4.811475346450001</v>
       </c>
       <c r="R5">
-        <v>14.89167075105</v>
+        <v>43.30327811805</v>
       </c>
       <c r="S5">
-        <v>0.1031199275509484</v>
+        <v>0.1791575886802791</v>
       </c>
       <c r="T5">
-        <v>0.1031199275509484</v>
+        <v>0.1791575886802791</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,22 +779,22 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.2767293333333333</v>
+        <v>1.793503666666667</v>
       </c>
       <c r="H6">
-        <v>0.8301879999999999</v>
+        <v>5.380511</v>
       </c>
       <c r="I6">
-        <v>0.03360677657129334</v>
+        <v>0.1608202836929164</v>
       </c>
       <c r="J6">
-        <v>0.03360677657129334</v>
+        <v>0.1608202836929164</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,22 +809,22 @@
         <v>5.12336</v>
       </c>
       <c r="O6">
-        <v>0.8764025646701328</v>
+        <v>0.7091726973716084</v>
       </c>
       <c r="P6">
-        <v>0.8764025646701328</v>
+        <v>0.7091726973716084</v>
       </c>
       <c r="Q6">
-        <v>0.4725946657422222</v>
+        <v>3.062921648551111</v>
       </c>
       <c r="R6">
-        <v>4.25335199168</v>
+        <v>27.56629483696</v>
       </c>
       <c r="S6">
-        <v>0.02945306517737762</v>
+        <v>0.1140493543785728</v>
       </c>
       <c r="T6">
-        <v>0.02945306517737761</v>
+        <v>0.1140493543785728</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,22 +841,22 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0.2767293333333333</v>
+        <v>1.793503666666667</v>
       </c>
       <c r="H7">
-        <v>0.8301879999999999</v>
+        <v>5.380511</v>
       </c>
       <c r="I7">
-        <v>0.03360677657129334</v>
+        <v>0.1608202836929164</v>
       </c>
       <c r="J7">
-        <v>0.03360677657129334</v>
+        <v>0.1608202836929164</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,28 +865,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.240846</v>
+        <v>0.7003526666666667</v>
       </c>
       <c r="N7">
-        <v>0.722538</v>
+        <v>2.101058</v>
       </c>
       <c r="O7">
-        <v>0.1235974353298672</v>
+        <v>0.2908273026283917</v>
       </c>
       <c r="P7">
-        <v>0.1235974353298672</v>
+        <v>0.2908273026283917</v>
       </c>
       <c r="Q7">
-        <v>0.066649153016</v>
+        <v>1.256085075626445</v>
       </c>
       <c r="R7">
-        <v>0.5998423771439999</v>
+        <v>11.304765680638</v>
       </c>
       <c r="S7">
-        <v>0.004153711393915725</v>
+        <v>0.0467709293143436</v>
       </c>
       <c r="T7">
-        <v>0.004153711393915724</v>
+        <v>0.0467709293143436</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,22 +903,22 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>0.7357713333333334</v>
+        <v>0.3724043333333333</v>
       </c>
       <c r="H8">
-        <v>2.207314</v>
+        <v>1.117213</v>
       </c>
       <c r="I8">
-        <v>0.08935410825100797</v>
+        <v>0.03339283417605023</v>
       </c>
       <c r="J8">
-        <v>0.08935410825100797</v>
+        <v>0.03339283417605023</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,22 +933,22 @@
         <v>5.12336</v>
       </c>
       <c r="O8">
-        <v>0.8764025646701328</v>
+        <v>0.7091726973716084</v>
       </c>
       <c r="P8">
-        <v>0.8764025646701328</v>
+        <v>0.7091726973716084</v>
       </c>
       <c r="Q8">
-        <v>1.256540472782222</v>
+        <v>0.6359871550755555</v>
       </c>
       <c r="R8">
-        <v>11.30886425504</v>
+        <v>5.72388439568</v>
       </c>
       <c r="S8">
-        <v>0.07831016963499605</v>
+        <v>0.02368128628551237</v>
       </c>
       <c r="T8">
-        <v>0.07831016963499605</v>
+        <v>0.02368128628551237</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,22 +965,22 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>0.7357713333333334</v>
+        <v>0.3724043333333333</v>
       </c>
       <c r="H9">
-        <v>2.207314</v>
+        <v>1.117213</v>
       </c>
       <c r="I9">
-        <v>0.08935410825100797</v>
+        <v>0.03339283417605023</v>
       </c>
       <c r="J9">
-        <v>0.08935410825100797</v>
+        <v>0.03339283417605023</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.240846</v>
+        <v>0.7003526666666667</v>
       </c>
       <c r="N9">
-        <v>0.722538</v>
+        <v>2.101058</v>
       </c>
       <c r="O9">
-        <v>0.1235974353298672</v>
+        <v>0.2908273026283917</v>
       </c>
       <c r="P9">
-        <v>0.1235974353298672</v>
+        <v>0.2908273026283917</v>
       </c>
       <c r="Q9">
-        <v>0.177207582548</v>
+        <v>0.2608143679282223</v>
       </c>
       <c r="R9">
-        <v>1.594868242932</v>
+        <v>2.347329311354</v>
       </c>
       <c r="S9">
-        <v>0.01104393861601191</v>
+        <v>0.00971154789053786</v>
       </c>
       <c r="T9">
-        <v>0.01104393861601191</v>
+        <v>0.00971154789053786</v>
       </c>
     </row>
   </sheetData>
